--- a/spec/support/validRoVirtualOnlySpreadsheet.xlsx
+++ b/spec/support/validRoVirtualOnlySpreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephenhalliburton/workspace/caseflow/spec/support/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremyshields/git-repos/caseflow/spec/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E1995A-6A2F-F148-9BF3-FCCCEC9A9DC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFBB27C-1810-0142-93E1-3A504FD9A252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15400" yWindow="460" windowWidth="23000" windowHeight="21140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7120" yWindow="460" windowWidth="23000" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RO Non-Availability Dates" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="130">
   <si>
     <t>Example</t>
   </si>
@@ -406,6 +406,12 @@
   </si>
   <si>
     <t>8:30</t>
+  </si>
+  <si>
+    <t>White River Junction, VT</t>
+  </si>
+  <si>
+    <t>RO05</t>
   </si>
 </sst>
 </file>
@@ -1239,40 +1245,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="12" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="13" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="10" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="10" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1300,6 +1276,36 @@
     <xf numFmtId="49" fontId="15" fillId="13" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="12" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="10" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="10" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2490,10 +2496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IT50"/>
+  <dimension ref="A1:IU50"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AU19" sqref="AU19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2503,29 +2509,30 @@
     <col min="3" max="3" width="16.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5" style="1" customWidth="1"/>
-    <col min="7" max="254" width="11" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="46" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="1" customWidth="1"/>
+    <col min="8" max="255" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:58" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="4"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -2568,9 +2575,10 @@
       <c r="BB1" s="4"/>
       <c r="BC1" s="4"/>
       <c r="BD1" s="4"/>
-      <c r="BE1" s="5"/>
-    </row>
-    <row r="2" spans="1:57" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="5"/>
+    </row>
+    <row r="2" spans="1:58" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -2587,163 +2595,166 @@
         <v>6</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="Q2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="S2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="U2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="V2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="W2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="X2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="Y2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Z2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="AA2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AB2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="AC2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AD2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="9" t="s">
+      <c r="AE2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AE2" s="9" t="s">
+      <c r="AF2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AF2" s="9" t="s">
+      <c r="AG2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AG2" s="9" t="s">
+      <c r="AH2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AH2" s="9" t="s">
+      <c r="AI2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AI2" s="9" t="s">
+      <c r="AJ2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AJ2" s="9" t="s">
+      <c r="AK2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AK2" s="9" t="s">
+      <c r="AL2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AL2" s="9" t="s">
+      <c r="AM2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AM2" s="9" t="s">
+      <c r="AN2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AN2" s="9" t="s">
+      <c r="AO2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AO2" s="9" t="s">
+      <c r="AP2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AP2" s="9" t="s">
+      <c r="AQ2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AQ2" s="9" t="s">
+      <c r="AR2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AR2" s="9" t="s">
+      <c r="AS2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="AS2" s="9" t="s">
+      <c r="AT2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="AT2" s="9" t="s">
+      <c r="AU2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AU2" s="9" t="s">
+      <c r="AV2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AV2" s="9" t="s">
+      <c r="AW2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AW2" s="9" t="s">
+      <c r="AX2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AX2" s="9" t="s">
+      <c r="AY2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AY2" s="9" t="s">
+      <c r="AZ2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AZ2" s="9" t="s">
+      <c r="BA2" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="BA2" s="9" t="s">
+      <c r="BB2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="BB2" s="9" t="s">
+      <c r="BC2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="BC2" s="9" t="s">
+      <c r="BD2" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="BD2" s="9" t="s">
+      <c r="BE2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="BE2" s="9" t="s">
+      <c r="BF2" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:57" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:58" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>59</v>
       </c>
@@ -2760,163 +2771,166 @@
         <v>63</v>
       </c>
       <c r="F3" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="H3" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="I3" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="J3" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="K3" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="L3" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="M3" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="N3" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="O3" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="P3" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="Q3" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="R3" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="S3" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="T3" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="U3" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="V3" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="W3" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="W3" s="12" t="s">
+      <c r="X3" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="X3" s="12" t="s">
+      <c r="Y3" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="Y3" s="12" t="s">
+      <c r="Z3" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="Z3" s="12" t="s">
+      <c r="AA3" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="AA3" s="12" t="s">
+      <c r="AB3" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="AB3" s="12" t="s">
+      <c r="AC3" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="AC3" s="12" t="s">
+      <c r="AD3" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="AD3" s="12" t="s">
+      <c r="AE3" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="AE3" s="12" t="s">
+      <c r="AF3" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="AF3" s="12" t="s">
+      <c r="AG3" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="AG3" s="12" t="s">
+      <c r="AH3" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="AH3" s="12" t="s">
+      <c r="AI3" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="AI3" s="12" t="s">
+      <c r="AJ3" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="AJ3" s="12" t="s">
+      <c r="AK3" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="AK3" s="12" t="s">
+      <c r="AL3" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="AL3" s="12" t="s">
+      <c r="AM3" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="AM3" s="12" t="s">
+      <c r="AN3" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="AN3" s="12" t="s">
+      <c r="AO3" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="AO3" s="12" t="s">
+      <c r="AP3" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="AP3" s="12" t="s">
+      <c r="AQ3" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="AQ3" s="12" t="s">
+      <c r="AR3" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="AR3" s="12" t="s">
+      <c r="AS3" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="AS3" s="12" t="s">
+      <c r="AT3" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="AT3" s="12" t="s">
+      <c r="AU3" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="AU3" s="12" t="s">
+      <c r="AV3" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="AV3" s="12" t="s">
+      <c r="AW3" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="AW3" s="12" t="s">
+      <c r="AX3" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="AX3" s="12" t="s">
+      <c r="AY3" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="AY3" s="12" t="s">
+      <c r="AZ3" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="AZ3" s="12" t="s">
+      <c r="BA3" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="BA3" s="12" t="s">
+      <c r="BB3" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="BB3" s="12" t="s">
+      <c r="BC3" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="BC3" s="12" t="s">
+      <c r="BD3" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="BD3" s="12" t="s">
+      <c r="BE3" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="BE3" s="12" t="s">
+      <c r="BF3" s="12" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:57" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:58" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>116</v>
       </c>
@@ -3088,8 +3102,11 @@
       <c r="BE4" s="18">
         <v>43114</v>
       </c>
-    </row>
-    <row r="5" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF4" s="18">
+        <v>43114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="20">
         <v>43497</v>
@@ -3259,8 +3276,11 @@
       <c r="BE5" s="22">
         <v>43115</v>
       </c>
-    </row>
-    <row r="6" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF5" s="22">
+        <v>43115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="23">
         <v>43540</v>
@@ -3430,8 +3450,11 @@
       <c r="BE6" s="22">
         <v>43225</v>
       </c>
-    </row>
-    <row r="7" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF6" s="22">
+        <v>43225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7" s="24">
         <v>43576</v>
@@ -3535,11 +3558,11 @@
       <c r="AI7" s="22">
         <v>43191</v>
       </c>
-      <c r="AJ7" s="25" t="s">
+      <c r="AJ7" s="22">
+        <v>43191</v>
+      </c>
+      <c r="AK7" s="25" t="s">
         <v>117</v>
-      </c>
-      <c r="AK7" s="22">
-        <v>43191</v>
       </c>
       <c r="AL7" s="22">
         <v>43191</v>
@@ -3601,8 +3624,11 @@
       <c r="BE7" s="22">
         <v>43191</v>
       </c>
-    </row>
-    <row r="8" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF7" s="22">
+        <v>43191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="B8" s="26">
         <v>43604</v>
@@ -3662,8 +3688,9 @@
       <c r="BC8" s="29"/>
       <c r="BD8" s="29"/>
       <c r="BE8" s="29"/>
-    </row>
-    <row r="9" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF8" s="29"/>
+    </row>
+    <row r="9" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
       <c r="B9" s="30"/>
       <c r="C9" s="31"/>
@@ -3721,8 +3748,9 @@
       <c r="BC9" s="29"/>
       <c r="BD9" s="29"/>
       <c r="BE9" s="29"/>
-    </row>
-    <row r="10" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF9" s="29"/>
+    </row>
+    <row r="10" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -3780,8 +3808,9 @@
       <c r="BC10" s="28"/>
       <c r="BD10" s="28"/>
       <c r="BE10" s="28"/>
-    </row>
-    <row r="11" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF10" s="28"/>
+    </row>
+    <row r="11" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="34"/>
       <c r="C11" s="31"/>
@@ -3838,9 +3867,10 @@
       <c r="BB11" s="31"/>
       <c r="BC11" s="31"/>
       <c r="BD11" s="31"/>
-      <c r="BE11" s="35"/>
-    </row>
-    <row r="12" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE11" s="31"/>
+      <c r="BF11" s="35"/>
+    </row>
+    <row r="12" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="B12" s="32"/>
       <c r="C12" s="33"/>
@@ -3898,8 +3928,9 @@
       <c r="BC12" s="33"/>
       <c r="BD12" s="33"/>
       <c r="BE12" s="33"/>
-    </row>
-    <row r="13" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF12" s="33"/>
+    </row>
+    <row r="13" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13" s="34"/>
       <c r="C13" s="31"/>
@@ -3956,9 +3987,10 @@
       <c r="BB13" s="31"/>
       <c r="BC13" s="31"/>
       <c r="BD13" s="31"/>
-      <c r="BE13" s="35"/>
-    </row>
-    <row r="14" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE13" s="31"/>
+      <c r="BF13" s="35"/>
+    </row>
+    <row r="14" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="32"/>
       <c r="C14" s="33"/>
@@ -4016,8 +4048,9 @@
       <c r="BC14" s="33"/>
       <c r="BD14" s="33"/>
       <c r="BE14" s="33"/>
-    </row>
-    <row r="15" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF14" s="33"/>
+    </row>
+    <row r="15" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="34"/>
       <c r="C15" s="31"/>
@@ -4074,9 +4107,10 @@
       <c r="BB15" s="31"/>
       <c r="BC15" s="31"/>
       <c r="BD15" s="31"/>
-      <c r="BE15" s="35"/>
-    </row>
-    <row r="16" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE15" s="31"/>
+      <c r="BF15" s="35"/>
+    </row>
+    <row r="16" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="32"/>
       <c r="C16" s="33"/>
@@ -4134,8 +4168,9 @@
       <c r="BC16" s="33"/>
       <c r="BD16" s="33"/>
       <c r="BE16" s="33"/>
-    </row>
-    <row r="17" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF16" s="33"/>
+    </row>
+    <row r="17" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17" s="34"/>
       <c r="C17" s="31"/>
@@ -4192,9 +4227,10 @@
       <c r="BB17" s="31"/>
       <c r="BC17" s="31"/>
       <c r="BD17" s="31"/>
-      <c r="BE17" s="35"/>
-    </row>
-    <row r="18" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE17" s="31"/>
+      <c r="BF17" s="35"/>
+    </row>
+    <row r="18" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
       <c r="B18" s="32"/>
       <c r="C18" s="33"/>
@@ -4252,8 +4288,9 @@
       <c r="BC18" s="33"/>
       <c r="BD18" s="33"/>
       <c r="BE18" s="33"/>
-    </row>
-    <row r="19" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF18" s="33"/>
+    </row>
+    <row r="19" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
       <c r="B19" s="34"/>
       <c r="C19" s="31"/>
@@ -4310,9 +4347,10 @@
       <c r="BB19" s="31"/>
       <c r="BC19" s="31"/>
       <c r="BD19" s="31"/>
-      <c r="BE19" s="35"/>
-    </row>
-    <row r="20" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE19" s="31"/>
+      <c r="BF19" s="35"/>
+    </row>
+    <row r="20" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
       <c r="B20" s="32"/>
       <c r="C20" s="33"/>
@@ -4370,8 +4408,9 @@
       <c r="BC20" s="33"/>
       <c r="BD20" s="33"/>
       <c r="BE20" s="33"/>
-    </row>
-    <row r="21" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF20" s="33"/>
+    </row>
+    <row r="21" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
       <c r="B21" s="34"/>
       <c r="C21" s="31"/>
@@ -4428,9 +4467,10 @@
       <c r="BB21" s="31"/>
       <c r="BC21" s="31"/>
       <c r="BD21" s="31"/>
-      <c r="BE21" s="35"/>
-    </row>
-    <row r="22" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE21" s="31"/>
+      <c r="BF21" s="35"/>
+    </row>
+    <row r="22" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
       <c r="B22" s="32"/>
       <c r="C22" s="33"/>
@@ -4488,8 +4528,9 @@
       <c r="BC22" s="33"/>
       <c r="BD22" s="33"/>
       <c r="BE22" s="33"/>
-    </row>
-    <row r="23" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF22" s="33"/>
+    </row>
+    <row r="23" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
       <c r="B23" s="34"/>
       <c r="C23" s="31"/>
@@ -4546,9 +4587,10 @@
       <c r="BB23" s="31"/>
       <c r="BC23" s="31"/>
       <c r="BD23" s="31"/>
-      <c r="BE23" s="35"/>
-    </row>
-    <row r="24" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE23" s="31"/>
+      <c r="BF23" s="35"/>
+    </row>
+    <row r="24" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="19"/>
       <c r="B24" s="32"/>
       <c r="C24" s="33"/>
@@ -4606,8 +4648,9 @@
       <c r="BC24" s="33"/>
       <c r="BD24" s="33"/>
       <c r="BE24" s="33"/>
-    </row>
-    <row r="25" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF24" s="33"/>
+    </row>
+    <row r="25" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="19"/>
       <c r="B25" s="34"/>
       <c r="C25" s="31"/>
@@ -4664,9 +4707,10 @@
       <c r="BB25" s="31"/>
       <c r="BC25" s="31"/>
       <c r="BD25" s="31"/>
-      <c r="BE25" s="35"/>
-    </row>
-    <row r="26" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE25" s="31"/>
+      <c r="BF25" s="35"/>
+    </row>
+    <row r="26" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
       <c r="B26" s="32"/>
       <c r="C26" s="33"/>
@@ -4724,8 +4768,9 @@
       <c r="BC26" s="33"/>
       <c r="BD26" s="33"/>
       <c r="BE26" s="33"/>
-    </row>
-    <row r="27" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF26" s="33"/>
+    </row>
+    <row r="27" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="19"/>
       <c r="B27" s="34"/>
       <c r="C27" s="31"/>
@@ -4782,9 +4827,10 @@
       <c r="BB27" s="31"/>
       <c r="BC27" s="31"/>
       <c r="BD27" s="31"/>
-      <c r="BE27" s="35"/>
-    </row>
-    <row r="28" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE27" s="31"/>
+      <c r="BF27" s="35"/>
+    </row>
+    <row r="28" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="19"/>
       <c r="B28" s="32"/>
       <c r="C28" s="33"/>
@@ -4842,8 +4888,9 @@
       <c r="BC28" s="33"/>
       <c r="BD28" s="33"/>
       <c r="BE28" s="33"/>
-    </row>
-    <row r="29" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF28" s="33"/>
+    </row>
+    <row r="29" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="19"/>
       <c r="B29" s="34"/>
       <c r="C29" s="31"/>
@@ -4900,9 +4947,10 @@
       <c r="BB29" s="31"/>
       <c r="BC29" s="31"/>
       <c r="BD29" s="31"/>
-      <c r="BE29" s="35"/>
-    </row>
-    <row r="30" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE29" s="31"/>
+      <c r="BF29" s="35"/>
+    </row>
+    <row r="30" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="19"/>
       <c r="B30" s="32"/>
       <c r="C30" s="33"/>
@@ -4960,8 +5008,9 @@
       <c r="BC30" s="33"/>
       <c r="BD30" s="33"/>
       <c r="BE30" s="33"/>
-    </row>
-    <row r="31" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF30" s="33"/>
+    </row>
+    <row r="31" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="19"/>
       <c r="B31" s="34"/>
       <c r="C31" s="31"/>
@@ -5018,9 +5067,10 @@
       <c r="BB31" s="31"/>
       <c r="BC31" s="31"/>
       <c r="BD31" s="31"/>
-      <c r="BE31" s="35"/>
-    </row>
-    <row r="32" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE31" s="31"/>
+      <c r="BF31" s="35"/>
+    </row>
+    <row r="32" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="19"/>
       <c r="B32" s="32"/>
       <c r="C32" s="33"/>
@@ -5078,8 +5128,9 @@
       <c r="BC32" s="33"/>
       <c r="BD32" s="33"/>
       <c r="BE32" s="33"/>
-    </row>
-    <row r="33" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF32" s="33"/>
+    </row>
+    <row r="33" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="19"/>
       <c r="B33" s="34"/>
       <c r="C33" s="31"/>
@@ -5136,9 +5187,10 @@
       <c r="BB33" s="31"/>
       <c r="BC33" s="31"/>
       <c r="BD33" s="31"/>
-      <c r="BE33" s="35"/>
-    </row>
-    <row r="34" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE33" s="31"/>
+      <c r="BF33" s="35"/>
+    </row>
+    <row r="34" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="19"/>
       <c r="B34" s="32"/>
       <c r="C34" s="33"/>
@@ -5196,8 +5248,9 @@
       <c r="BC34" s="33"/>
       <c r="BD34" s="33"/>
       <c r="BE34" s="33"/>
-    </row>
-    <row r="35" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF34" s="33"/>
+    </row>
+    <row r="35" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="19"/>
       <c r="B35" s="34"/>
       <c r="C35" s="31"/>
@@ -5254,9 +5307,10 @@
       <c r="BB35" s="31"/>
       <c r="BC35" s="31"/>
       <c r="BD35" s="31"/>
-      <c r="BE35" s="35"/>
-    </row>
-    <row r="36" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE35" s="31"/>
+      <c r="BF35" s="35"/>
+    </row>
+    <row r="36" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="19"/>
       <c r="B36" s="32"/>
       <c r="C36" s="33"/>
@@ -5314,8 +5368,9 @@
       <c r="BC36" s="33"/>
       <c r="BD36" s="33"/>
       <c r="BE36" s="33"/>
-    </row>
-    <row r="37" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF36" s="33"/>
+    </row>
+    <row r="37" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="19"/>
       <c r="B37" s="34"/>
       <c r="C37" s="31"/>
@@ -5372,9 +5427,10 @@
       <c r="BB37" s="31"/>
       <c r="BC37" s="31"/>
       <c r="BD37" s="31"/>
-      <c r="BE37" s="35"/>
-    </row>
-    <row r="38" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE37" s="31"/>
+      <c r="BF37" s="35"/>
+    </row>
+    <row r="38" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="19"/>
       <c r="B38" s="32"/>
       <c r="C38" s="33"/>
@@ -5432,8 +5488,9 @@
       <c r="BC38" s="33"/>
       <c r="BD38" s="33"/>
       <c r="BE38" s="33"/>
-    </row>
-    <row r="39" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF38" s="33"/>
+    </row>
+    <row r="39" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="19"/>
       <c r="B39" s="34"/>
       <c r="C39" s="31"/>
@@ -5490,9 +5547,10 @@
       <c r="BB39" s="31"/>
       <c r="BC39" s="31"/>
       <c r="BD39" s="31"/>
-      <c r="BE39" s="35"/>
-    </row>
-    <row r="40" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE39" s="31"/>
+      <c r="BF39" s="35"/>
+    </row>
+    <row r="40" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="19"/>
       <c r="B40" s="32"/>
       <c r="C40" s="33"/>
@@ -5550,8 +5608,9 @@
       <c r="BC40" s="33"/>
       <c r="BD40" s="33"/>
       <c r="BE40" s="33"/>
-    </row>
-    <row r="41" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF40" s="33"/>
+    </row>
+    <row r="41" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="19"/>
       <c r="B41" s="34"/>
       <c r="C41" s="31"/>
@@ -5608,9 +5667,10 @@
       <c r="BB41" s="31"/>
       <c r="BC41" s="31"/>
       <c r="BD41" s="31"/>
-      <c r="BE41" s="35"/>
-    </row>
-    <row r="42" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE41" s="31"/>
+      <c r="BF41" s="35"/>
+    </row>
+    <row r="42" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="19"/>
       <c r="B42" s="32"/>
       <c r="C42" s="33"/>
@@ -5668,8 +5728,9 @@
       <c r="BC42" s="33"/>
       <c r="BD42" s="33"/>
       <c r="BE42" s="33"/>
-    </row>
-    <row r="43" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF42" s="33"/>
+    </row>
+    <row r="43" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="19"/>
       <c r="B43" s="34"/>
       <c r="C43" s="31"/>
@@ -5726,9 +5787,10 @@
       <c r="BB43" s="31"/>
       <c r="BC43" s="31"/>
       <c r="BD43" s="31"/>
-      <c r="BE43" s="35"/>
-    </row>
-    <row r="44" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE43" s="31"/>
+      <c r="BF43" s="35"/>
+    </row>
+    <row r="44" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="19"/>
       <c r="B44" s="32"/>
       <c r="C44" s="33"/>
@@ -5786,8 +5848,9 @@
       <c r="BC44" s="33"/>
       <c r="BD44" s="33"/>
       <c r="BE44" s="33"/>
-    </row>
-    <row r="45" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF44" s="33"/>
+    </row>
+    <row r="45" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="19"/>
       <c r="B45" s="34"/>
       <c r="C45" s="31"/>
@@ -5844,9 +5907,10 @@
       <c r="BB45" s="31"/>
       <c r="BC45" s="31"/>
       <c r="BD45" s="31"/>
-      <c r="BE45" s="35"/>
-    </row>
-    <row r="46" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE45" s="31"/>
+      <c r="BF45" s="35"/>
+    </row>
+    <row r="46" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="19"/>
       <c r="B46" s="32"/>
       <c r="C46" s="33"/>
@@ -5904,8 +5968,9 @@
       <c r="BC46" s="33"/>
       <c r="BD46" s="33"/>
       <c r="BE46" s="33"/>
-    </row>
-    <row r="47" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF46" s="33"/>
+    </row>
+    <row r="47" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="19"/>
       <c r="B47" s="34"/>
       <c r="C47" s="31"/>
@@ -5962,9 +6027,10 @@
       <c r="BB47" s="31"/>
       <c r="BC47" s="31"/>
       <c r="BD47" s="31"/>
-      <c r="BE47" s="35"/>
-    </row>
-    <row r="48" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE47" s="31"/>
+      <c r="BF47" s="35"/>
+    </row>
+    <row r="48" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="19"/>
       <c r="B48" s="32"/>
       <c r="C48" s="33"/>
@@ -6022,8 +6088,9 @@
       <c r="BC48" s="33"/>
       <c r="BD48" s="33"/>
       <c r="BE48" s="33"/>
-    </row>
-    <row r="49" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF48" s="33"/>
+    </row>
+    <row r="49" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="19"/>
       <c r="B49" s="34"/>
       <c r="C49" s="31"/>
@@ -6080,9 +6147,10 @@
       <c r="BB49" s="31"/>
       <c r="BC49" s="31"/>
       <c r="BD49" s="31"/>
-      <c r="BE49" s="35"/>
-    </row>
-    <row r="50" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE49" s="31"/>
+      <c r="BF49" s="35"/>
+    </row>
+    <row r="50" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="36"/>
       <c r="B50" s="37"/>
       <c r="C50" s="38"/>
@@ -6140,10 +6208,11 @@
       <c r="BC50" s="38"/>
       <c r="BD50" s="38"/>
       <c r="BE50" s="38"/>
+      <c r="BF50" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="C1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
@@ -6169,10 +6238,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="65"/>
+      <c r="B1" s="80"/>
       <c r="C1" s="40"/>
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
@@ -6270,10 +6339,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:IV98"/>
+  <dimension ref="A1:IV99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6284,21 +6353,21 @@
     <col min="4" max="4" width="22.5" style="46" customWidth="1"/>
     <col min="5" max="5" width="23" style="58" customWidth="1"/>
     <col min="6" max="7" width="11" style="46" customWidth="1"/>
-    <col min="8" max="8" width="11" style="85" customWidth="1"/>
+    <col min="8" max="8" width="11" style="75" customWidth="1"/>
     <col min="9" max="256" width="11" style="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="81" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="68"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="83"/>
       <c r="I1" s="47"/>
       <c r="J1" s="47"/>
       <c r="K1" s="47"/>
@@ -6307,16 +6376,16 @@
       <c r="N1" s="47"/>
     </row>
     <row r="2" spans="1:14" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="73"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86"/>
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
@@ -6325,26 +6394,26 @@
       <c r="N2" s="29"/>
     </row>
     <row r="3" spans="1:14" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="74"/>
-      <c r="B3" s="75" t="s">
+      <c r="A3" s="64"/>
+      <c r="B3" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="E3" s="77" t="s">
+      <c r="E3" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="F3" s="78" t="s">
+      <c r="F3" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="G3" s="77" t="s">
+      <c r="G3" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="77" t="s">
+      <c r="H3" s="67" t="s">
         <v>126</v>
       </c>
       <c r="I3" s="29"/>
@@ -6355,28 +6424,28 @@
       <c r="N3" s="29"/>
     </row>
     <row r="4" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="82">
+      <c r="D4" s="72">
         <v>10</v>
       </c>
-      <c r="E4" s="83">
+      <c r="E4" s="73">
         <v>50</v>
       </c>
-      <c r="F4" s="83">
+      <c r="F4" s="73">
         <v>8</v>
       </c>
-      <c r="G4" s="83">
+      <c r="G4" s="73">
         <v>60</v>
       </c>
-      <c r="H4" s="84" t="s">
+      <c r="H4" s="74" t="s">
         <v>127</v>
       </c>
       <c r="I4" s="29"/>
@@ -6406,7 +6475,7 @@
       <c r="G5" s="29">
         <v>30</v>
       </c>
-      <c r="H5" s="86" t="s">
+      <c r="H5" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I5" s="29"/>
@@ -6436,7 +6505,7 @@
       <c r="G6" s="29">
         <v>30</v>
       </c>
-      <c r="H6" s="86" t="s">
+      <c r="H6" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I6" s="29"/>
@@ -6466,7 +6535,7 @@
       <c r="G7" s="29">
         <v>30</v>
       </c>
-      <c r="H7" s="86" t="s">
+      <c r="H7" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I7" s="29"/>
@@ -6479,10 +6548,10 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="54"/>
       <c r="B8" s="49" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="D8" s="51">
         <v>0</v>
@@ -6496,7 +6565,7 @@
       <c r="G8" s="29">
         <v>30</v>
       </c>
-      <c r="H8" s="86" t="s">
+      <c r="H8" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I8" s="29"/>
@@ -6509,16 +6578,16 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="54"/>
       <c r="B9" s="49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="51">
         <v>0</v>
       </c>
       <c r="E9" s="60">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F9" s="29">
         <v>5</v>
@@ -6526,7 +6595,7 @@
       <c r="G9" s="29">
         <v>30</v>
       </c>
-      <c r="H9" s="86" t="s">
+      <c r="H9" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I9" s="29"/>
@@ -6539,16 +6608,16 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="54"/>
       <c r="B10" s="49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="51">
         <v>0</v>
       </c>
       <c r="E10" s="60">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F10" s="29">
         <v>5</v>
@@ -6556,7 +6625,7 @@
       <c r="G10" s="29">
         <v>30</v>
       </c>
-      <c r="H10" s="86" t="s">
+      <c r="H10" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I10" s="29"/>
@@ -6569,16 +6638,16 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="54"/>
       <c r="B11" s="49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="51">
         <v>0</v>
       </c>
       <c r="E11" s="60">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="F11" s="29">
         <v>5</v>
@@ -6586,7 +6655,7 @@
       <c r="G11" s="29">
         <v>30</v>
       </c>
-      <c r="H11" s="86" t="s">
+      <c r="H11" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I11" s="29"/>
@@ -6599,16 +6668,16 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="54"/>
       <c r="B12" s="49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="51">
         <v>0</v>
       </c>
       <c r="E12" s="60">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F12" s="29">
         <v>5</v>
@@ -6616,7 +6685,7 @@
       <c r="G12" s="29">
         <v>30</v>
       </c>
-      <c r="H12" s="86" t="s">
+      <c r="H12" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I12" s="29"/>
@@ -6629,16 +6698,16 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="54"/>
       <c r="B13" s="49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="51">
         <v>0</v>
       </c>
       <c r="E13" s="60">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F13" s="29">
         <v>5</v>
@@ -6646,7 +6715,7 @@
       <c r="G13" s="29">
         <v>30</v>
       </c>
-      <c r="H13" s="86" t="s">
+      <c r="H13" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I13" s="29"/>
@@ -6659,16 +6728,16 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="54"/>
       <c r="B14" s="49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="51">
         <v>0</v>
       </c>
       <c r="E14" s="60">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F14" s="29">
         <v>5</v>
@@ -6676,7 +6745,7 @@
       <c r="G14" s="29">
         <v>30</v>
       </c>
-      <c r="H14" s="86" t="s">
+      <c r="H14" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I14" s="29"/>
@@ -6689,16 +6758,16 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="54"/>
       <c r="B15" s="49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="51">
         <v>0</v>
       </c>
       <c r="E15" s="60">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="F15" s="29">
         <v>5</v>
@@ -6706,7 +6775,7 @@
       <c r="G15" s="29">
         <v>30</v>
       </c>
-      <c r="H15" s="86" t="s">
+      <c r="H15" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I15" s="29"/>
@@ -6719,10 +6788,10 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="54"/>
       <c r="B16" s="49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="51">
         <v>0</v>
@@ -6736,7 +6805,7 @@
       <c r="G16" s="29">
         <v>30</v>
       </c>
-      <c r="H16" s="86" t="s">
+      <c r="H16" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I16" s="29"/>
@@ -6749,16 +6818,16 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="54"/>
       <c r="B17" s="49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="51">
         <v>0</v>
       </c>
       <c r="E17" s="60">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="F17" s="29">
         <v>5</v>
@@ -6766,7 +6835,7 @@
       <c r="G17" s="29">
         <v>30</v>
       </c>
-      <c r="H17" s="86" t="s">
+      <c r="H17" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I17" s="29"/>
@@ -6779,16 +6848,16 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="54"/>
       <c r="B18" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="51">
         <v>0</v>
       </c>
       <c r="E18" s="60">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="F18" s="29">
         <v>5</v>
@@ -6796,7 +6865,7 @@
       <c r="G18" s="29">
         <v>30</v>
       </c>
-      <c r="H18" s="86" t="s">
+      <c r="H18" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I18" s="29"/>
@@ -6809,16 +6878,16 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="54"/>
       <c r="B19" s="49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="51">
         <v>0</v>
       </c>
       <c r="E19" s="60">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c r="F19" s="29">
         <v>5</v>
@@ -6826,7 +6895,7 @@
       <c r="G19" s="29">
         <v>30</v>
       </c>
-      <c r="H19" s="86" t="s">
+      <c r="H19" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I19" s="29"/>
@@ -6839,16 +6908,16 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="54"/>
       <c r="B20" s="49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="51">
         <v>0</v>
       </c>
       <c r="E20" s="60">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="F20" s="29">
         <v>5</v>
@@ -6856,7 +6925,7 @@
       <c r="G20" s="29">
         <v>30</v>
       </c>
-      <c r="H20" s="86" t="s">
+      <c r="H20" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I20" s="29"/>
@@ -6869,10 +6938,10 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="54"/>
       <c r="B21" s="49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="51">
         <v>0</v>
@@ -6886,7 +6955,7 @@
       <c r="G21" s="29">
         <v>30</v>
       </c>
-      <c r="H21" s="86" t="s">
+      <c r="H21" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I21" s="29"/>
@@ -6899,16 +6968,16 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="54"/>
       <c r="B22" s="49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="51">
         <v>0</v>
       </c>
       <c r="E22" s="60">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F22" s="29">
         <v>5</v>
@@ -6916,7 +6985,7 @@
       <c r="G22" s="29">
         <v>30</v>
       </c>
-      <c r="H22" s="86" t="s">
+      <c r="H22" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I22" s="29"/>
@@ -6929,16 +6998,16 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="54"/>
       <c r="B23" s="49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" s="51">
         <v>0</v>
       </c>
       <c r="E23" s="60">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F23" s="29">
         <v>5</v>
@@ -6946,7 +7015,7 @@
       <c r="G23" s="29">
         <v>30</v>
       </c>
-      <c r="H23" s="86" t="s">
+      <c r="H23" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I23" s="29"/>
@@ -6959,16 +7028,16 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="54"/>
       <c r="B24" s="49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24" s="51">
         <v>0</v>
       </c>
       <c r="E24" s="60">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="F24" s="29">
         <v>5</v>
@@ -6976,7 +7045,7 @@
       <c r="G24" s="29">
         <v>30</v>
       </c>
-      <c r="H24" s="86" t="s">
+      <c r="H24" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I24" s="29"/>
@@ -6989,16 +7058,16 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="54"/>
       <c r="B25" s="49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C25" s="50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="51">
         <v>0</v>
       </c>
       <c r="E25" s="60">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="F25" s="29">
         <v>5</v>
@@ -7006,7 +7075,7 @@
       <c r="G25" s="29">
         <v>30</v>
       </c>
-      <c r="H25" s="86" t="s">
+      <c r="H25" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I25" s="29"/>
@@ -7019,16 +7088,16 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="54"/>
       <c r="B26" s="49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" s="51">
         <v>0</v>
       </c>
       <c r="E26" s="60">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="F26" s="29">
         <v>5</v>
@@ -7036,7 +7105,7 @@
       <c r="G26" s="29">
         <v>30</v>
       </c>
-      <c r="H26" s="86" t="s">
+      <c r="H26" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I26" s="29"/>
@@ -7049,16 +7118,16 @@
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="54"/>
       <c r="B27" s="49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C27" s="50" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27" s="51">
         <v>0</v>
       </c>
       <c r="E27" s="60">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F27" s="29">
         <v>5</v>
@@ -7066,7 +7135,7 @@
       <c r="G27" s="29">
         <v>30</v>
       </c>
-      <c r="H27" s="86" t="s">
+      <c r="H27" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I27" s="29"/>
@@ -7079,16 +7148,16 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="54"/>
       <c r="B28" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C28" s="50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" s="51">
         <v>0</v>
       </c>
       <c r="E28" s="60">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="F28" s="29">
         <v>5</v>
@@ -7096,7 +7165,7 @@
       <c r="G28" s="29">
         <v>30</v>
       </c>
-      <c r="H28" s="86" t="s">
+      <c r="H28" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I28" s="29"/>
@@ -7109,16 +7178,16 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="54"/>
       <c r="B29" s="49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C29" s="50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="51">
         <v>0</v>
       </c>
       <c r="E29" s="60">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="F29" s="29">
         <v>5</v>
@@ -7126,7 +7195,7 @@
       <c r="G29" s="29">
         <v>30</v>
       </c>
-      <c r="H29" s="86" t="s">
+      <c r="H29" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I29" s="29"/>
@@ -7139,16 +7208,16 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="54"/>
       <c r="B30" s="49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C30" s="50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30" s="51">
         <v>0</v>
       </c>
       <c r="E30" s="60">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F30" s="29">
         <v>5</v>
@@ -7156,7 +7225,7 @@
       <c r="G30" s="29">
         <v>30</v>
       </c>
-      <c r="H30" s="86" t="s">
+      <c r="H30" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I30" s="29"/>
@@ -7169,16 +7238,16 @@
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="54"/>
       <c r="B31" s="49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C31" s="50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31" s="51">
         <v>0</v>
       </c>
       <c r="E31" s="60">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F31" s="29">
         <v>5</v>
@@ -7186,7 +7255,7 @@
       <c r="G31" s="29">
         <v>30</v>
       </c>
-      <c r="H31" s="86" t="s">
+      <c r="H31" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I31" s="29"/>
@@ -7199,16 +7268,16 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="54"/>
       <c r="B32" s="49" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="C32" s="50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32" s="51">
         <v>0</v>
       </c>
       <c r="E32" s="60">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F32" s="29">
         <v>5</v>
@@ -7216,7 +7285,7 @@
       <c r="G32" s="29">
         <v>30</v>
       </c>
-      <c r="H32" s="86" t="s">
+      <c r="H32" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I32" s="29"/>
@@ -7229,16 +7298,16 @@
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="54"/>
       <c r="B33" s="49" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="C33" s="50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33" s="51">
         <v>0</v>
       </c>
       <c r="E33" s="60">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F33" s="29">
         <v>5</v>
@@ -7246,7 +7315,7 @@
       <c r="G33" s="29">
         <v>30</v>
       </c>
-      <c r="H33" s="86" t="s">
+      <c r="H33" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I33" s="29"/>
@@ -7259,16 +7328,16 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="54"/>
       <c r="B34" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C34" s="50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D34" s="51">
         <v>0</v>
       </c>
       <c r="E34" s="60">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F34" s="29">
         <v>5</v>
@@ -7276,7 +7345,7 @@
       <c r="G34" s="29">
         <v>30</v>
       </c>
-      <c r="H34" s="86" t="s">
+      <c r="H34" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I34" s="29"/>
@@ -7289,16 +7358,16 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="54"/>
       <c r="B35" s="49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C35" s="50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D35" s="51">
         <v>0</v>
       </c>
       <c r="E35" s="60">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F35" s="29">
         <v>5</v>
@@ -7306,7 +7375,7 @@
       <c r="G35" s="29">
         <v>30</v>
       </c>
-      <c r="H35" s="86" t="s">
+      <c r="H35" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I35" s="29"/>
@@ -7319,16 +7388,16 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="54"/>
       <c r="B36" s="49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C36" s="50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D36" s="51">
         <v>0</v>
       </c>
       <c r="E36" s="60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F36" s="29">
         <v>5</v>
@@ -7336,7 +7405,7 @@
       <c r="G36" s="29">
         <v>30</v>
       </c>
-      <c r="H36" s="86" t="s">
+      <c r="H36" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I36" s="29"/>
@@ -7349,16 +7418,16 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="54"/>
       <c r="B37" s="49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C37" s="50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D37" s="51">
         <v>0</v>
       </c>
       <c r="E37" s="60">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F37" s="29">
         <v>5</v>
@@ -7366,7 +7435,7 @@
       <c r="G37" s="29">
         <v>30</v>
       </c>
-      <c r="H37" s="86" t="s">
+      <c r="H37" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I37" s="29"/>
@@ -7379,16 +7448,16 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="54"/>
       <c r="B38" s="49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C38" s="50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D38" s="51">
         <v>0</v>
       </c>
       <c r="E38" s="60">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="F38" s="29">
         <v>5</v>
@@ -7396,7 +7465,7 @@
       <c r="G38" s="29">
         <v>30</v>
       </c>
-      <c r="H38" s="86" t="s">
+      <c r="H38" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I38" s="29"/>
@@ -7409,16 +7478,16 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="54"/>
       <c r="B39" s="49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C39" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D39" s="51">
         <v>0</v>
       </c>
       <c r="E39" s="60">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="F39" s="29">
         <v>5</v>
@@ -7426,7 +7495,7 @@
       <c r="G39" s="29">
         <v>30</v>
       </c>
-      <c r="H39" s="86" t="s">
+      <c r="H39" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I39" s="29"/>
@@ -7439,16 +7508,16 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="54"/>
       <c r="B40" s="49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C40" s="50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D40" s="51">
         <v>0</v>
       </c>
       <c r="E40" s="60">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F40" s="29">
         <v>5</v>
@@ -7456,7 +7525,7 @@
       <c r="G40" s="29">
         <v>30</v>
       </c>
-      <c r="H40" s="86" t="s">
+      <c r="H40" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I40" s="29"/>
@@ -7469,16 +7538,16 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="54"/>
       <c r="B41" s="49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C41" s="50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D41" s="51">
         <v>0</v>
       </c>
       <c r="E41" s="60">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F41" s="29">
         <v>5</v>
@@ -7486,7 +7555,7 @@
       <c r="G41" s="29">
         <v>30</v>
       </c>
-      <c r="H41" s="86" t="s">
+      <c r="H41" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I41" s="29"/>
@@ -7499,16 +7568,16 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="54"/>
       <c r="B42" s="49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42" s="50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D42" s="51">
         <v>0</v>
       </c>
       <c r="E42" s="60">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="F42" s="29">
         <v>5</v>
@@ -7516,7 +7585,7 @@
       <c r="G42" s="29">
         <v>30</v>
       </c>
-      <c r="H42" s="86" t="s">
+      <c r="H42" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I42" s="29"/>
@@ -7529,16 +7598,16 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="54"/>
       <c r="B43" s="49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C43" s="50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D43" s="51">
         <v>0</v>
       </c>
       <c r="E43" s="60">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F43" s="29">
         <v>5</v>
@@ -7546,7 +7615,7 @@
       <c r="G43" s="29">
         <v>30</v>
       </c>
-      <c r="H43" s="86" t="s">
+      <c r="H43" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I43" s="29"/>
@@ -7559,16 +7628,16 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="54"/>
       <c r="B44" s="49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C44" s="50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D44" s="51">
         <v>0</v>
       </c>
       <c r="E44" s="60">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="F44" s="29">
         <v>5</v>
@@ -7576,7 +7645,7 @@
       <c r="G44" s="29">
         <v>30</v>
       </c>
-      <c r="H44" s="86" t="s">
+      <c r="H44" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I44" s="29"/>
@@ -7589,16 +7658,16 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="54"/>
       <c r="B45" s="49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C45" s="50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D45" s="51">
         <v>0</v>
       </c>
       <c r="E45" s="60">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F45" s="29">
         <v>5</v>
@@ -7606,7 +7675,7 @@
       <c r="G45" s="29">
         <v>30</v>
       </c>
-      <c r="H45" s="86" t="s">
+      <c r="H45" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I45" s="29"/>
@@ -7619,16 +7688,16 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="54"/>
       <c r="B46" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C46" s="50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D46" s="51">
         <v>0</v>
       </c>
       <c r="E46" s="60">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="F46" s="29">
         <v>5</v>
@@ -7636,7 +7705,7 @@
       <c r="G46" s="29">
         <v>30</v>
       </c>
-      <c r="H46" s="86" t="s">
+      <c r="H46" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I46" s="29"/>
@@ -7649,16 +7718,16 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="54"/>
       <c r="B47" s="49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C47" s="50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D47" s="51">
         <v>0</v>
       </c>
       <c r="E47" s="60">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="F47" s="29">
         <v>5</v>
@@ -7666,7 +7735,7 @@
       <c r="G47" s="29">
         <v>30</v>
       </c>
-      <c r="H47" s="86" t="s">
+      <c r="H47" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I47" s="29"/>
@@ -7679,16 +7748,16 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="54"/>
       <c r="B48" s="49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C48" s="50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D48" s="51">
         <v>0</v>
       </c>
       <c r="E48" s="60">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="F48" s="29">
         <v>5</v>
@@ -7696,7 +7765,7 @@
       <c r="G48" s="29">
         <v>30</v>
       </c>
-      <c r="H48" s="86" t="s">
+      <c r="H48" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I48" s="29"/>
@@ -7709,16 +7778,16 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="54"/>
       <c r="B49" s="49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C49" s="50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D49" s="51">
         <v>0</v>
       </c>
       <c r="E49" s="60">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="F49" s="29">
         <v>5</v>
@@ -7726,7 +7795,7 @@
       <c r="G49" s="29">
         <v>30</v>
       </c>
-      <c r="H49" s="86" t="s">
+      <c r="H49" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I49" s="29"/>
@@ -7739,16 +7808,16 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="54"/>
       <c r="B50" s="49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C50" s="50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D50" s="51">
         <v>0</v>
       </c>
       <c r="E50" s="60">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F50" s="29">
         <v>5</v>
@@ -7756,7 +7825,7 @@
       <c r="G50" s="29">
         <v>30</v>
       </c>
-      <c r="H50" s="86" t="s">
+      <c r="H50" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I50" s="29"/>
@@ -7769,16 +7838,16 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="54"/>
       <c r="B51" s="49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C51" s="50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D51" s="51">
         <v>0</v>
       </c>
       <c r="E51" s="60">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F51" s="29">
         <v>5</v>
@@ -7786,7 +7855,7 @@
       <c r="G51" s="29">
         <v>30</v>
       </c>
-      <c r="H51" s="86" t="s">
+      <c r="H51" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I51" s="29"/>
@@ -7799,16 +7868,16 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="54"/>
       <c r="B52" s="49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C52" s="50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D52" s="51">
         <v>0</v>
       </c>
       <c r="E52" s="60">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F52" s="29">
         <v>5</v>
@@ -7816,7 +7885,7 @@
       <c r="G52" s="29">
         <v>30</v>
       </c>
-      <c r="H52" s="86" t="s">
+      <c r="H52" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I52" s="29"/>
@@ -7829,16 +7898,16 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="54"/>
       <c r="B53" s="49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C53" s="50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D53" s="51">
         <v>0</v>
       </c>
       <c r="E53" s="60">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F53" s="29">
         <v>5</v>
@@ -7846,7 +7915,7 @@
       <c r="G53" s="29">
         <v>30</v>
       </c>
-      <c r="H53" s="86" t="s">
+      <c r="H53" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I53" s="29"/>
@@ -7859,16 +7928,16 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="54"/>
       <c r="B54" s="49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C54" s="50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D54" s="51">
         <v>0</v>
       </c>
       <c r="E54" s="60">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F54" s="29">
         <v>5</v>
@@ -7876,7 +7945,7 @@
       <c r="G54" s="29">
         <v>30</v>
       </c>
-      <c r="H54" s="86" t="s">
+      <c r="H54" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I54" s="29"/>
@@ -7889,16 +7958,16 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="54"/>
       <c r="B55" s="49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C55" s="50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D55" s="51">
         <v>0</v>
       </c>
       <c r="E55" s="60">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F55" s="29">
         <v>5</v>
@@ -7906,7 +7975,7 @@
       <c r="G55" s="29">
         <v>30</v>
       </c>
-      <c r="H55" s="86" t="s">
+      <c r="H55" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I55" s="29"/>
@@ -7919,16 +7988,16 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="54"/>
       <c r="B56" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="C56" s="61" t="s">
-        <v>55</v>
+        <v>111</v>
+      </c>
+      <c r="C56" s="50" t="s">
+        <v>54</v>
       </c>
       <c r="D56" s="51">
         <v>0</v>
       </c>
       <c r="E56" s="60">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="F56" s="29">
         <v>5</v>
@@ -7936,7 +8005,7 @@
       <c r="G56" s="29">
         <v>30</v>
       </c>
-      <c r="H56" s="86" t="s">
+      <c r="H56" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I56" s="29"/>
@@ -7949,16 +8018,16 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="54"/>
       <c r="B57" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="C57" s="50" t="s">
-        <v>56</v>
+        <v>112</v>
+      </c>
+      <c r="C57" s="61" t="s">
+        <v>55</v>
       </c>
       <c r="D57" s="51">
         <v>0</v>
       </c>
       <c r="E57" s="60">
-        <v>3</v>
+        <v>166</v>
       </c>
       <c r="F57" s="29">
         <v>5</v>
@@ -7966,7 +8035,7 @@
       <c r="G57" s="29">
         <v>30</v>
       </c>
-      <c r="H57" s="86" t="s">
+      <c r="H57" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I57" s="29"/>
@@ -7979,16 +8048,16 @@
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="54"/>
       <c r="B58" s="49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C58" s="50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D58" s="51">
         <v>0</v>
       </c>
       <c r="E58" s="60">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F58" s="29">
         <v>5</v>
@@ -7996,7 +8065,7 @@
       <c r="G58" s="29">
         <v>30</v>
       </c>
-      <c r="H58" s="86" t="s">
+      <c r="H58" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I58" s="29"/>
@@ -8009,16 +8078,16 @@
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="54"/>
       <c r="B59" s="49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C59" s="50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D59" s="51">
         <v>0</v>
       </c>
       <c r="E59" s="60">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F59" s="29">
         <v>5</v>
@@ -8026,7 +8095,7 @@
       <c r="G59" s="29">
         <v>30</v>
       </c>
-      <c r="H59" s="86" t="s">
+      <c r="H59" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I59" s="29"/>
@@ -8038,13 +8107,27 @@
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="54"/>
-      <c r="B60" s="55"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="51"/>
-      <c r="E60" s="57"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="25"/>
+      <c r="B60" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60" s="51">
+        <v>0</v>
+      </c>
+      <c r="E60" s="60">
+        <v>25</v>
+      </c>
+      <c r="F60" s="29">
+        <v>5</v>
+      </c>
+      <c r="G60" s="29">
+        <v>30</v>
+      </c>
+      <c r="H60" s="76" t="s">
+        <v>127</v>
+      </c>
       <c r="I60" s="29"/>
       <c r="J60" s="29"/>
       <c r="K60" s="29"/>
@@ -8054,7 +8137,7 @@
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="54"/>
-      <c r="B61" s="40"/>
+      <c r="B61" s="55"/>
       <c r="C61" s="29"/>
       <c r="D61" s="51"/>
       <c r="E61" s="57"/>
@@ -8645,7 +8728,7 @@
       <c r="N97" s="29"/>
     </row>
     <row r="98" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="56"/>
+      <c r="A98" s="54"/>
       <c r="B98" s="40"/>
       <c r="C98" s="29"/>
       <c r="D98" s="51"/>
@@ -8660,6 +8743,22 @@
       <c r="M98" s="29"/>
       <c r="N98" s="29"/>
     </row>
+    <row r="99" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="56"/>
+      <c r="B99" s="40"/>
+      <c r="C99" s="29"/>
+      <c r="D99" s="51"/>
+      <c r="E99" s="57"/>
+      <c r="F99" s="29"/>
+      <c r="G99" s="29"/>
+      <c r="H99" s="25"/>
+      <c r="I99" s="29"/>
+      <c r="J99" s="29"/>
+      <c r="K99" s="29"/>
+      <c r="L99" s="29"/>
+      <c r="M99" s="29"/>
+      <c r="N99" s="29"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
